--- a/Files to Read.xlsx
+++ b/Files to Read.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khepri\Documents\Side Project\Energy Data Set\Power Plant analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khepri\Documents\Side Project\Energy Data Set\US-power-plants\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,19 +14,16 @@
   <sheets>
     <sheet name="Files to Read" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
   <si>
     <t>EIA923_Schedules_6_7_NU_SourceNDisposition_2015_Final_Revision.xlsx</t>
   </si>
   <si>
-    <t>Dis</t>
-  </si>
-  <si>
     <t>EIA923_Schedules_6_7_NU_SourceNDisposition_2014_Final_Revision.xlsx</t>
   </si>
   <si>
@@ -64,6 +61,51 @@
   </si>
   <si>
     <t>Year</t>
+  </si>
+  <si>
+    <t>2004 Nonutility Source and Disposition.xls</t>
+  </si>
+  <si>
+    <t>DIS</t>
+  </si>
+  <si>
+    <t>2005 Nonutility Source and Disposition.xls</t>
+  </si>
+  <si>
+    <t>2006 Nonutility Source and Disposition.xls</t>
+  </si>
+  <si>
+    <t>2007 Nonutility Source and Disposition.xls</t>
+  </si>
+  <si>
+    <t>2008 Nonutility Source and Disposition Final version.xlsm</t>
+  </si>
+  <si>
+    <t>2009 Nonutility Source and Disposition.xls</t>
+  </si>
+  <si>
+    <t>2010 Nonutility Source and Disposition.xls</t>
+  </si>
+  <si>
+    <t>f906920_2004.xls</t>
+  </si>
+  <si>
+    <t>f906920_2005.xls</t>
+  </si>
+  <si>
+    <t>f906920_2006.xls</t>
+  </si>
+  <si>
+    <t>f906920_2007.xls</t>
+  </si>
+  <si>
+    <t>eia923December2008.xls</t>
+  </si>
+  <si>
+    <t>EIA923 SCHEDULES 2_3_4_5 Final 2010.xls</t>
+  </si>
+  <si>
+    <t>EIA923 SCHEDULES 2_3_4_5 M Final 2009 REVISED 05252011.XLS</t>
   </si>
 </sst>
 </file>
@@ -870,10 +912,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -883,13 +925,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -897,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>2015</v>
@@ -905,10 +947,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>2014</v>
@@ -916,10 +958,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>2013</v>
@@ -927,10 +969,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <v>2012</v>
@@ -938,10 +980,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>2011</v>
@@ -949,10 +991,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7">
         <v>2015</v>
@@ -960,10 +1002,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8">
         <v>2014</v>
@@ -971,10 +1013,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9">
         <v>2012</v>
@@ -982,10 +1024,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10">
         <v>2013</v>
@@ -993,13 +1035,167 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11">
         <v>2011</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>2009</v>
       </c>
     </row>
   </sheetData>

--- a/Files to Read.xlsx
+++ b/Files to Read.xlsx
@@ -915,7 +915,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
